--- a/BalanceSheet/HSY_bal.xlsx
+++ b/BalanceSheet/HSY_bal.xlsx
@@ -507,16 +507,16 @@
         <v>910000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1000.0</v>
+        <v>964000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>42477000.0</v>
+        <v>958000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-166489000.0</v>
+        <v>999000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-27907000.0</v>
+        <v>832000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>815251000.0</v>
@@ -1734,16 +1734,16 @@
         <v>554000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-90795000.0</v>
+        <v>580000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>151569000.0</v>
+        <v>590000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-19940000.0</v>
+        <v>530000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>636000.0</v>
+        <v>532000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>550828000.0</v>
@@ -2691,16 +2691,16 @@
         <v>203000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>19643000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3928000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>10312000.0</v>
+        <v>180000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-7003000.0</v>
+        <v>172000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>200018000.0</v>
@@ -4563,7 +4563,7 @@
         <v>4196000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3987000000.0</v>
+        <v>3773223000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>4218044000.0</v>
@@ -4690,7 +4690,7 @@
         <v>5291000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4480000000.0</v>
+        <v>4266485000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4520680000.0</v>
